--- a/BDs/BDXL/r+_BDXL_3.09w.xlsx
+++ b/BDs/BDXL/r+_BDXL_3.09w.xlsx
@@ -12,13 +12,14 @@
     <sheet name="均值偏差(%)方差" sheetId="3" r:id="rId3"/>
     <sheet name="门概率图" sheetId="4" r:id="rId4"/>
     <sheet name="方向图" sheetId="5" r:id="rId5"/>
+    <sheet name="置信区间验证" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -184,6 +185,165 @@
   <si>
     <t>Dir_combined_std(%)</t>
   </si>
+  <si>
+    <t>实验 1 - Doors</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>频数</t>
+  </si>
+  <si>
+    <t>估计概率</t>
+  </si>
+  <si>
+    <t>下界</t>
+  </si>
+  <si>
+    <t>上界</t>
+  </si>
+  <si>
+    <t>误差幅度</t>
+  </si>
+  <si>
+    <t>≤1%</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>实验 1 - Directions</t>
+  </si>
+  <si>
+    <t>Up-Left</t>
+  </si>
+  <si>
+    <t>Up-Right</t>
+  </si>
+  <si>
+    <t>Down-Right</t>
+  </si>
+  <si>
+    <t>Down-Left</t>
+  </si>
+  <si>
+    <t>实验 1a - Doors</t>
+  </si>
+  <si>
+    <t>实验 1a - Directions</t>
+  </si>
+  <si>
+    <t>实验 1b - Doors</t>
+  </si>
+  <si>
+    <t>实验 1b - Directions</t>
+  </si>
+  <si>
+    <t>实验 1c - Doors</t>
+  </si>
+  <si>
+    <t>实验 1c - Directions</t>
+  </si>
+  <si>
+    <t>实验 1d - Doors</t>
+  </si>
+  <si>
+    <t>实验 1d - Directions</t>
+  </si>
+  <si>
+    <t>实验 3 - Doors</t>
+  </si>
+  <si>
+    <t>实验 3 - Directions</t>
+  </si>
+  <si>
+    <t>实验 3a - Doors</t>
+  </si>
+  <si>
+    <t>实验 3a - Directions</t>
+  </si>
+  <si>
+    <t>实验 3b - Doors</t>
+  </si>
+  <si>
+    <t>实验 3b - Directions</t>
+  </si>
+  <si>
+    <t>实验 3c - Doors</t>
+  </si>
+  <si>
+    <t>实验 3c - Directions</t>
+  </si>
+  <si>
+    <t>实验 3d - Doors</t>
+  </si>
+  <si>
+    <t>实验 3d - Directions</t>
+  </si>
+  <si>
+    <t>实验 5 - Doors</t>
+  </si>
+  <si>
+    <t>实验 5 - Directions</t>
+  </si>
+  <si>
+    <t>实验 5a - Doors</t>
+  </si>
+  <si>
+    <t>实验 5a - Directions</t>
+  </si>
+  <si>
+    <t>实验 5b - Doors</t>
+  </si>
+  <si>
+    <t>实验 5b - Directions</t>
+  </si>
+  <si>
+    <t>实验 5c - Doors</t>
+  </si>
+  <si>
+    <t>实验 5c - Directions</t>
+  </si>
+  <si>
+    <t>实验 5d - Doors</t>
+  </si>
+  <si>
+    <t>实验 5d - Directions</t>
+  </si>
+  <si>
+    <t>实验 7 - Doors</t>
+  </si>
+  <si>
+    <t>实验 7 - Directions</t>
+  </si>
+  <si>
+    <t>实验 7a - Doors</t>
+  </si>
+  <si>
+    <t>实验 7a - Directions</t>
+  </si>
+  <si>
+    <t>实验 7b - Doors</t>
+  </si>
+  <si>
+    <t>实验 7b - Directions</t>
+  </si>
+  <si>
+    <t>实验 7c - Doors</t>
+  </si>
+  <si>
+    <t>实验 7c - Directions</t>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -274,6 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5277,4 +5444,6330 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G359"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="7" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>9542</v>
+      </c>
+      <c r="C3">
+        <v>0.308463</v>
+      </c>
+      <c r="D3">
+        <v>0.301943</v>
+      </c>
+      <c r="E3">
+        <v>0.31506</v>
+      </c>
+      <c r="F3">
+        <v>0.006597</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>9625</v>
+      </c>
+      <c r="C4">
+        <v>0.311146</v>
+      </c>
+      <c r="D4">
+        <v>0.30461</v>
+      </c>
+      <c r="E4">
+        <v>0.317758</v>
+      </c>
+      <c r="F4">
+        <v>0.006612</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>9542</v>
+      </c>
+      <c r="C5">
+        <v>0.308463</v>
+      </c>
+      <c r="D5">
+        <v>0.301943</v>
+      </c>
+      <c r="E5">
+        <v>0.31506</v>
+      </c>
+      <c r="F5">
+        <v>0.006597</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>9778</v>
+      </c>
+      <c r="C6">
+        <v>0.316092</v>
+      </c>
+      <c r="D6">
+        <v>0.309527</v>
+      </c>
+      <c r="E6">
+        <v>0.322732</v>
+      </c>
+      <c r="F6">
+        <v>0.006639</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>3528</v>
+      </c>
+      <c r="C10">
+        <v>0.114049</v>
+      </c>
+      <c r="D10">
+        <v>0.1092</v>
+      </c>
+      <c r="E10">
+        <v>0.119085</v>
+      </c>
+      <c r="F10">
+        <v>0.005035</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>4061</v>
+      </c>
+      <c r="C11">
+        <v>0.131279</v>
+      </c>
+      <c r="D11">
+        <v>0.126118</v>
+      </c>
+      <c r="E11">
+        <v>0.136619</v>
+      </c>
+      <c r="F11">
+        <v>0.005339</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>3615</v>
+      </c>
+      <c r="C12">
+        <v>0.116862</v>
+      </c>
+      <c r="D12">
+        <v>0.11196</v>
+      </c>
+      <c r="E12">
+        <v>0.121949</v>
+      </c>
+      <c r="F12">
+        <v>0.005087</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>4223</v>
+      </c>
+      <c r="C13">
+        <v>0.136516</v>
+      </c>
+      <c r="D13">
+        <v>0.131266</v>
+      </c>
+      <c r="E13">
+        <v>0.141942</v>
+      </c>
+      <c r="F13">
+        <v>0.005426</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>3500</v>
+      </c>
+      <c r="C14">
+        <v>0.113144</v>
+      </c>
+      <c r="D14">
+        <v>0.108313</v>
+      </c>
+      <c r="E14">
+        <v>0.118163</v>
+      </c>
+      <c r="F14">
+        <v>0.005018</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>4171</v>
+      </c>
+      <c r="C15">
+        <v>0.134835</v>
+      </c>
+      <c r="D15">
+        <v>0.129614</v>
+      </c>
+      <c r="E15">
+        <v>0.140234</v>
+      </c>
+      <c r="F15">
+        <v>0.005398</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>3588</v>
+      </c>
+      <c r="C16">
+        <v>0.115989</v>
+      </c>
+      <c r="D16">
+        <v>0.111103</v>
+      </c>
+      <c r="E16">
+        <v>0.12106</v>
+      </c>
+      <c r="F16">
+        <v>0.005071</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17">
+        <v>4248</v>
+      </c>
+      <c r="C17">
+        <v>0.137325</v>
+      </c>
+      <c r="D17">
+        <v>0.132061</v>
+      </c>
+      <c r="E17">
+        <v>0.142763</v>
+      </c>
+      <c r="F17">
+        <v>0.005439</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22">
+        <v>9586</v>
+      </c>
+      <c r="C22">
+        <v>0.309886</v>
+      </c>
+      <c r="D22">
+        <v>0.303357</v>
+      </c>
+      <c r="E22">
+        <v>0.316491</v>
+      </c>
+      <c r="F22">
+        <v>0.006605</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23">
+        <v>9611</v>
+      </c>
+      <c r="C23">
+        <v>0.310694</v>
+      </c>
+      <c r="D23">
+        <v>0.30416</v>
+      </c>
+      <c r="E23">
+        <v>0.317303</v>
+      </c>
+      <c r="F23">
+        <v>0.00661</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24">
+        <v>9515</v>
+      </c>
+      <c r="C24">
+        <v>0.30759</v>
+      </c>
+      <c r="D24">
+        <v>0.301076</v>
+      </c>
+      <c r="E24">
+        <v>0.314182</v>
+      </c>
+      <c r="F24">
+        <v>0.006592</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25">
+        <v>9774</v>
+      </c>
+      <c r="C25">
+        <v>0.315963</v>
+      </c>
+      <c r="D25">
+        <v>0.309399</v>
+      </c>
+      <c r="E25">
+        <v>0.322602</v>
+      </c>
+      <c r="F25">
+        <v>0.006639</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>3553</v>
+      </c>
+      <c r="C29">
+        <v>0.114857</v>
+      </c>
+      <c r="D29">
+        <v>0.109993</v>
+      </c>
+      <c r="E29">
+        <v>0.119908</v>
+      </c>
+      <c r="F29">
+        <v>0.00505</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30">
+        <v>4126</v>
+      </c>
+      <c r="C30">
+        <v>0.133381</v>
+      </c>
+      <c r="D30">
+        <v>0.128184</v>
+      </c>
+      <c r="E30">
+        <v>0.138755</v>
+      </c>
+      <c r="F30">
+        <v>0.005374</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>3639</v>
+      </c>
+      <c r="C31">
+        <v>0.117638</v>
+      </c>
+      <c r="D31">
+        <v>0.112721</v>
+      </c>
+      <c r="E31">
+        <v>0.122739</v>
+      </c>
+      <c r="F31">
+        <v>0.005101</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32">
+        <v>4244</v>
+      </c>
+      <c r="C32">
+        <v>0.137195</v>
+      </c>
+      <c r="D32">
+        <v>0.131934</v>
+      </c>
+      <c r="E32">
+        <v>0.142632</v>
+      </c>
+      <c r="F32">
+        <v>0.005437</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33">
+        <v>3457</v>
+      </c>
+      <c r="C33">
+        <v>0.111754</v>
+      </c>
+      <c r="D33">
+        <v>0.106949</v>
+      </c>
+      <c r="E33">
+        <v>0.116746</v>
+      </c>
+      <c r="F33">
+        <v>0.004992</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>4143</v>
+      </c>
+      <c r="C34">
+        <v>0.13393</v>
+      </c>
+      <c r="D34">
+        <v>0.128724</v>
+      </c>
+      <c r="E34">
+        <v>0.139314</v>
+      </c>
+      <c r="F34">
+        <v>0.005383</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35">
+        <v>3547</v>
+      </c>
+      <c r="C35">
+        <v>0.114663</v>
+      </c>
+      <c r="D35">
+        <v>0.109803</v>
+      </c>
+      <c r="E35">
+        <v>0.11971</v>
+      </c>
+      <c r="F35">
+        <v>0.005047</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36">
+        <v>4225</v>
+      </c>
+      <c r="C36">
+        <v>0.136581</v>
+      </c>
+      <c r="D36">
+        <v>0.13133</v>
+      </c>
+      <c r="E36">
+        <v>0.142008</v>
+      </c>
+      <c r="F36">
+        <v>0.005427</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41">
+        <v>9582</v>
+      </c>
+      <c r="C41">
+        <v>0.309766</v>
+      </c>
+      <c r="D41">
+        <v>0.303239</v>
+      </c>
+      <c r="E41">
+        <v>0.316371</v>
+      </c>
+      <c r="F41">
+        <v>0.006604</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42">
+        <v>9595</v>
+      </c>
+      <c r="C42">
+        <v>0.310187</v>
+      </c>
+      <c r="D42">
+        <v>0.303656</v>
+      </c>
+      <c r="E42">
+        <v>0.316793</v>
+      </c>
+      <c r="F42">
+        <v>0.006607</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43">
+        <v>9498</v>
+      </c>
+      <c r="C43">
+        <v>0.307051</v>
+      </c>
+      <c r="D43">
+        <v>0.300539</v>
+      </c>
+      <c r="E43">
+        <v>0.31364</v>
+      </c>
+      <c r="F43">
+        <v>0.006589</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44">
+        <v>9804</v>
+      </c>
+      <c r="C44">
+        <v>0.316943</v>
+      </c>
+      <c r="D44">
+        <v>0.310373</v>
+      </c>
+      <c r="E44">
+        <v>0.323587</v>
+      </c>
+      <c r="F44">
+        <v>0.006644</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48">
+        <v>3549</v>
+      </c>
+      <c r="C48">
+        <v>0.114732</v>
+      </c>
+      <c r="D48">
+        <v>0.10987</v>
+      </c>
+      <c r="E48">
+        <v>0.11978</v>
+      </c>
+      <c r="F48">
+        <v>0.005048</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49">
+        <v>4069</v>
+      </c>
+      <c r="C49">
+        <v>0.131542</v>
+      </c>
+      <c r="D49">
+        <v>0.126377</v>
+      </c>
+      <c r="E49">
+        <v>0.136886</v>
+      </c>
+      <c r="F49">
+        <v>0.005344</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <v>3623</v>
+      </c>
+      <c r="C50">
+        <v>0.117124</v>
+      </c>
+      <c r="D50">
+        <v>0.112217</v>
+      </c>
+      <c r="E50">
+        <v>0.122216</v>
+      </c>
+      <c r="F50">
+        <v>0.005092</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51">
+        <v>4173</v>
+      </c>
+      <c r="C51">
+        <v>0.134904</v>
+      </c>
+      <c r="D51">
+        <v>0.129681</v>
+      </c>
+      <c r="E51">
+        <v>0.140304</v>
+      </c>
+      <c r="F51">
+        <v>0.005399</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <v>3472</v>
+      </c>
+      <c r="C52">
+        <v>0.112243</v>
+      </c>
+      <c r="D52">
+        <v>0.107428</v>
+      </c>
+      <c r="E52">
+        <v>0.117244</v>
+      </c>
+      <c r="F52">
+        <v>0.005002</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53">
+        <v>4205</v>
+      </c>
+      <c r="C53">
+        <v>0.135939</v>
+      </c>
+      <c r="D53">
+        <v>0.130699</v>
+      </c>
+      <c r="E53">
+        <v>0.141355</v>
+      </c>
+      <c r="F53">
+        <v>0.005416</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54">
+        <v>3598</v>
+      </c>
+      <c r="C54">
+        <v>0.116316</v>
+      </c>
+      <c r="D54">
+        <v>0.111424</v>
+      </c>
+      <c r="E54">
+        <v>0.121393</v>
+      </c>
+      <c r="F54">
+        <v>0.005077</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55">
+        <v>4244</v>
+      </c>
+      <c r="C55">
+        <v>0.1372</v>
+      </c>
+      <c r="D55">
+        <v>0.131938</v>
+      </c>
+      <c r="E55">
+        <v>0.142637</v>
+      </c>
+      <c r="F55">
+        <v>0.005437</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>9465</v>
+      </c>
+      <c r="C60">
+        <v>0.305984</v>
+      </c>
+      <c r="D60">
+        <v>0.299479</v>
+      </c>
+      <c r="E60">
+        <v>0.312567</v>
+      </c>
+      <c r="F60">
+        <v>0.006583</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>8530</v>
+      </c>
+      <c r="C61">
+        <v>0.275757</v>
+      </c>
+      <c r="D61">
+        <v>0.269456</v>
+      </c>
+      <c r="E61">
+        <v>0.282149</v>
+      </c>
+      <c r="F61">
+        <v>0.006391</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>9355</v>
+      </c>
+      <c r="C62">
+        <v>0.302428</v>
+      </c>
+      <c r="D62">
+        <v>0.295945</v>
+      </c>
+      <c r="E62">
+        <v>0.30899</v>
+      </c>
+      <c r="F62">
+        <v>0.006562</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>9341</v>
+      </c>
+      <c r="C63">
+        <v>0.301975</v>
+      </c>
+      <c r="D63">
+        <v>0.295496</v>
+      </c>
+      <c r="E63">
+        <v>0.308535</v>
+      </c>
+      <c r="F63">
+        <v>0.006559</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67">
+        <v>3562</v>
+      </c>
+      <c r="C67">
+        <v>0.115152</v>
+      </c>
+      <c r="D67">
+        <v>0.110282</v>
+      </c>
+      <c r="E67">
+        <v>0.120208</v>
+      </c>
+      <c r="F67">
+        <v>0.005056</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>4520</v>
+      </c>
+      <c r="C68">
+        <v>0.146122</v>
+      </c>
+      <c r="D68">
+        <v>0.140716</v>
+      </c>
+      <c r="E68">
+        <v>0.151699</v>
+      </c>
+      <c r="F68">
+        <v>0.005577</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69">
+        <v>3134</v>
+      </c>
+      <c r="C69">
+        <v>0.101316</v>
+      </c>
+      <c r="D69">
+        <v>0.09672</v>
+      </c>
+      <c r="E69">
+        <v>0.106104</v>
+      </c>
+      <c r="F69">
+        <v>0.004788</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>4336</v>
+      </c>
+      <c r="C70">
+        <v>0.140174</v>
+      </c>
+      <c r="D70">
+        <v>0.134863</v>
+      </c>
+      <c r="E70">
+        <v>0.145658</v>
+      </c>
+      <c r="F70">
+        <v>0.005484</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71">
+        <v>3294</v>
+      </c>
+      <c r="C71">
+        <v>0.106488</v>
+      </c>
+      <c r="D71">
+        <v>0.101787</v>
+      </c>
+      <c r="E71">
+        <v>0.111379</v>
+      </c>
+      <c r="F71">
+        <v>0.004891</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>4239</v>
+      </c>
+      <c r="C72">
+        <v>0.137038</v>
+      </c>
+      <c r="D72">
+        <v>0.131779</v>
+      </c>
+      <c r="E72">
+        <v>0.142472</v>
+      </c>
+      <c r="F72">
+        <v>0.005434</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73">
+        <v>3395</v>
+      </c>
+      <c r="C73">
+        <v>0.109753</v>
+      </c>
+      <c r="D73">
+        <v>0.104988</v>
+      </c>
+      <c r="E73">
+        <v>0.114708</v>
+      </c>
+      <c r="F73">
+        <v>0.004954</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>4453</v>
+      </c>
+      <c r="C74">
+        <v>0.143956</v>
+      </c>
+      <c r="D74">
+        <v>0.138585</v>
+      </c>
+      <c r="E74">
+        <v>0.1495</v>
+      </c>
+      <c r="F74">
+        <v>0.005544</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79">
+        <v>9455</v>
+      </c>
+      <c r="C79">
+        <v>0.305661</v>
+      </c>
+      <c r="D79">
+        <v>0.299158</v>
+      </c>
+      <c r="E79">
+        <v>0.312242</v>
+      </c>
+      <c r="F79">
+        <v>0.006581</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80">
+        <v>8458</v>
+      </c>
+      <c r="C80">
+        <v>0.27343</v>
+      </c>
+      <c r="D80">
+        <v>0.267146</v>
+      </c>
+      <c r="E80">
+        <v>0.279805</v>
+      </c>
+      <c r="F80">
+        <v>0.006375</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81">
+        <v>9435</v>
+      </c>
+      <c r="C81">
+        <v>0.305014</v>
+      </c>
+      <c r="D81">
+        <v>0.298515</v>
+      </c>
+      <c r="E81">
+        <v>0.311591</v>
+      </c>
+      <c r="F81">
+        <v>0.006577</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82">
+        <v>9284</v>
+      </c>
+      <c r="C82">
+        <v>0.300133</v>
+      </c>
+      <c r="D82">
+        <v>0.293665</v>
+      </c>
+      <c r="E82">
+        <v>0.306681</v>
+      </c>
+      <c r="F82">
+        <v>0.006548</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86">
+        <v>3375</v>
+      </c>
+      <c r="C86">
+        <v>0.109107</v>
+      </c>
+      <c r="D86">
+        <v>0.104354</v>
+      </c>
+      <c r="E86">
+        <v>0.114049</v>
+      </c>
+      <c r="F86">
+        <v>0.004942</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>68</v>
+      </c>
+      <c r="B87">
+        <v>4489</v>
+      </c>
+      <c r="C87">
+        <v>0.14512</v>
+      </c>
+      <c r="D87">
+        <v>0.13973</v>
+      </c>
+      <c r="E87">
+        <v>0.150682</v>
+      </c>
+      <c r="F87">
+        <v>0.005562</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88">
+        <v>3105</v>
+      </c>
+      <c r="C88">
+        <v>0.100378</v>
+      </c>
+      <c r="D88">
+        <v>0.095802</v>
+      </c>
+      <c r="E88">
+        <v>0.105147</v>
+      </c>
+      <c r="F88">
+        <v>0.004769</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89">
+        <v>4340</v>
+      </c>
+      <c r="C89">
+        <v>0.140303</v>
+      </c>
+      <c r="D89">
+        <v>0.134991</v>
+      </c>
+      <c r="E89">
+        <v>0.14579</v>
+      </c>
+      <c r="F89">
+        <v>0.005486</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90">
+        <v>3385</v>
+      </c>
+      <c r="C90">
+        <v>0.10943</v>
+      </c>
+      <c r="D90">
+        <v>0.104671</v>
+      </c>
+      <c r="E90">
+        <v>0.114378</v>
+      </c>
+      <c r="F90">
+        <v>0.004948</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91">
+        <v>4317</v>
+      </c>
+      <c r="C91">
+        <v>0.13956</v>
+      </c>
+      <c r="D91">
+        <v>0.134259</v>
+      </c>
+      <c r="E91">
+        <v>0.145034</v>
+      </c>
+      <c r="F91">
+        <v>0.005475</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92">
+        <v>3466</v>
+      </c>
+      <c r="C92">
+        <v>0.112049</v>
+      </c>
+      <c r="D92">
+        <v>0.107238</v>
+      </c>
+      <c r="E92">
+        <v>0.117047</v>
+      </c>
+      <c r="F92">
+        <v>0.004998</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93">
+        <v>4456</v>
+      </c>
+      <c r="C93">
+        <v>0.144053</v>
+      </c>
+      <c r="D93">
+        <v>0.13868</v>
+      </c>
+      <c r="E93">
+        <v>0.149599</v>
+      </c>
+      <c r="F93">
+        <v>0.005545</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98">
+        <v>9251</v>
+      </c>
+      <c r="C98">
+        <v>0.299066</v>
+      </c>
+      <c r="D98">
+        <v>0.292605</v>
+      </c>
+      <c r="E98">
+        <v>0.305608</v>
+      </c>
+      <c r="F98">
+        <v>0.006542</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99">
+        <v>9456</v>
+      </c>
+      <c r="C99">
+        <v>0.305693</v>
+      </c>
+      <c r="D99">
+        <v>0.29919</v>
+      </c>
+      <c r="E99">
+        <v>0.312274</v>
+      </c>
+      <c r="F99">
+        <v>0.006581</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100">
+        <v>9315</v>
+      </c>
+      <c r="C100">
+        <v>0.301135</v>
+      </c>
+      <c r="D100">
+        <v>0.29466</v>
+      </c>
+      <c r="E100">
+        <v>0.307689</v>
+      </c>
+      <c r="F100">
+        <v>0.006554</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101">
+        <v>9544</v>
+      </c>
+      <c r="C101">
+        <v>0.308538</v>
+      </c>
+      <c r="D101">
+        <v>0.302017</v>
+      </c>
+      <c r="E101">
+        <v>0.315135</v>
+      </c>
+      <c r="F101">
+        <v>0.006598</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105">
+        <v>3952</v>
+      </c>
+      <c r="C105">
+        <v>0.12776</v>
+      </c>
+      <c r="D105">
+        <v>0.12266</v>
+      </c>
+      <c r="E105">
+        <v>0.13304</v>
+      </c>
+      <c r="F105">
+        <v>0.00528</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106">
+        <v>3787</v>
+      </c>
+      <c r="C106">
+        <v>0.122426</v>
+      </c>
+      <c r="D106">
+        <v>0.117421</v>
+      </c>
+      <c r="E106">
+        <v>0.127613</v>
+      </c>
+      <c r="F106">
+        <v>0.005187</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107">
+        <v>4123</v>
+      </c>
+      <c r="C107">
+        <v>0.133288</v>
+      </c>
+      <c r="D107">
+        <v>0.128092</v>
+      </c>
+      <c r="E107">
+        <v>0.138661</v>
+      </c>
+      <c r="F107">
+        <v>0.005373</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108">
+        <v>3752</v>
+      </c>
+      <c r="C108">
+        <v>0.121294</v>
+      </c>
+      <c r="D108">
+        <v>0.11631</v>
+      </c>
+      <c r="E108">
+        <v>0.126462</v>
+      </c>
+      <c r="F108">
+        <v>0.005167</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>65</v>
+      </c>
+      <c r="B109">
+        <v>3963</v>
+      </c>
+      <c r="C109">
+        <v>0.128116</v>
+      </c>
+      <c r="D109">
+        <v>0.123009</v>
+      </c>
+      <c r="E109">
+        <v>0.133402</v>
+      </c>
+      <c r="F109">
+        <v>0.005286</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110">
+        <v>3690</v>
+      </c>
+      <c r="C110">
+        <v>0.11929</v>
+      </c>
+      <c r="D110">
+        <v>0.114343</v>
+      </c>
+      <c r="E110">
+        <v>0.124422</v>
+      </c>
+      <c r="F110">
+        <v>0.005131</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>66</v>
+      </c>
+      <c r="B111">
+        <v>3979</v>
+      </c>
+      <c r="C111">
+        <v>0.128633</v>
+      </c>
+      <c r="D111">
+        <v>0.123517</v>
+      </c>
+      <c r="E111">
+        <v>0.133928</v>
+      </c>
+      <c r="F111">
+        <v>0.005295</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>71</v>
+      </c>
+      <c r="B112">
+        <v>3687</v>
+      </c>
+      <c r="C112">
+        <v>0.119193</v>
+      </c>
+      <c r="D112">
+        <v>0.114247</v>
+      </c>
+      <c r="E112">
+        <v>0.124323</v>
+      </c>
+      <c r="F112">
+        <v>0.00513</v>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>63</v>
+      </c>
+      <c r="B117">
+        <v>9348</v>
+      </c>
+      <c r="C117">
+        <v>0.302202</v>
+      </c>
+      <c r="D117">
+        <v>0.295721</v>
+      </c>
+      <c r="E117">
+        <v>0.308762</v>
+      </c>
+      <c r="F117">
+        <v>0.006561</v>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118">
+        <v>9378</v>
+      </c>
+      <c r="C118">
+        <v>0.303171</v>
+      </c>
+      <c r="D118">
+        <v>0.296684</v>
+      </c>
+      <c r="E118">
+        <v>0.309738</v>
+      </c>
+      <c r="F118">
+        <v>0.006567</v>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>65</v>
+      </c>
+      <c r="B119">
+        <v>9339</v>
+      </c>
+      <c r="C119">
+        <v>0.301911</v>
+      </c>
+      <c r="D119">
+        <v>0.295431</v>
+      </c>
+      <c r="E119">
+        <v>0.30847</v>
+      </c>
+      <c r="F119">
+        <v>0.006559</v>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120">
+        <v>9533</v>
+      </c>
+      <c r="C120">
+        <v>0.308182</v>
+      </c>
+      <c r="D120">
+        <v>0.301664</v>
+      </c>
+      <c r="E120">
+        <v>0.314778</v>
+      </c>
+      <c r="F120">
+        <v>0.006596</v>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>63</v>
+      </c>
+      <c r="B124">
+        <v>4024</v>
+      </c>
+      <c r="C124">
+        <v>0.130088</v>
+      </c>
+      <c r="D124">
+        <v>0.124947</v>
+      </c>
+      <c r="E124">
+        <v>0.135407</v>
+      </c>
+      <c r="F124">
+        <v>0.00532</v>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>68</v>
+      </c>
+      <c r="B125">
+        <v>3702</v>
+      </c>
+      <c r="C125">
+        <v>0.119678</v>
+      </c>
+      <c r="D125">
+        <v>0.114723</v>
+      </c>
+      <c r="E125">
+        <v>0.124816</v>
+      </c>
+      <c r="F125">
+        <v>0.005138</v>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>64</v>
+      </c>
+      <c r="B126">
+        <v>4033</v>
+      </c>
+      <c r="C126">
+        <v>0.130379</v>
+      </c>
+      <c r="D126">
+        <v>0.125233</v>
+      </c>
+      <c r="E126">
+        <v>0.135703</v>
+      </c>
+      <c r="F126">
+        <v>0.005324</v>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>69</v>
+      </c>
+      <c r="B127">
+        <v>3694</v>
+      </c>
+      <c r="C127">
+        <v>0.119419</v>
+      </c>
+      <c r="D127">
+        <v>0.11447</v>
+      </c>
+      <c r="E127">
+        <v>0.124553</v>
+      </c>
+      <c r="F127">
+        <v>0.005134</v>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>65</v>
+      </c>
+      <c r="B128">
+        <v>4045</v>
+      </c>
+      <c r="C128">
+        <v>0.130766</v>
+      </c>
+      <c r="D128">
+        <v>0.125614</v>
+      </c>
+      <c r="E128">
+        <v>0.136097</v>
+      </c>
+      <c r="F128">
+        <v>0.005331</v>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129">
+        <v>3736</v>
+      </c>
+      <c r="C129">
+        <v>0.120777</v>
+      </c>
+      <c r="D129">
+        <v>0.115802</v>
+      </c>
+      <c r="E129">
+        <v>0.125935</v>
+      </c>
+      <c r="F129">
+        <v>0.005158</v>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130">
+        <v>3964</v>
+      </c>
+      <c r="C130">
+        <v>0.128148</v>
+      </c>
+      <c r="D130">
+        <v>0.123041</v>
+      </c>
+      <c r="E130">
+        <v>0.133435</v>
+      </c>
+      <c r="F130">
+        <v>0.005287</v>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131">
+        <v>3735</v>
+      </c>
+      <c r="C131">
+        <v>0.120745</v>
+      </c>
+      <c r="D131">
+        <v>0.115771</v>
+      </c>
+      <c r="E131">
+        <v>0.125902</v>
+      </c>
+      <c r="F131">
+        <v>0.005158</v>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136">
+        <v>9252</v>
+      </c>
+      <c r="C136">
+        <v>0.299098</v>
+      </c>
+      <c r="D136">
+        <v>0.292637</v>
+      </c>
+      <c r="E136">
+        <v>0.30564</v>
+      </c>
+      <c r="F136">
+        <v>0.006542</v>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>64</v>
+      </c>
+      <c r="B137">
+        <v>9423</v>
+      </c>
+      <c r="C137">
+        <v>0.304626</v>
+      </c>
+      <c r="D137">
+        <v>0.29813</v>
+      </c>
+      <c r="E137">
+        <v>0.311201</v>
+      </c>
+      <c r="F137">
+        <v>0.006575</v>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>65</v>
+      </c>
+      <c r="B138">
+        <v>9353</v>
+      </c>
+      <c r="C138">
+        <v>0.302363</v>
+      </c>
+      <c r="D138">
+        <v>0.295881</v>
+      </c>
+      <c r="E138">
+        <v>0.308925</v>
+      </c>
+      <c r="F138">
+        <v>0.006562</v>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>66</v>
+      </c>
+      <c r="B139">
+        <v>9521</v>
+      </c>
+      <c r="C139">
+        <v>0.307794</v>
+      </c>
+      <c r="D139">
+        <v>0.301278</v>
+      </c>
+      <c r="E139">
+        <v>0.314388</v>
+      </c>
+      <c r="F139">
+        <v>0.006593</v>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143">
+        <v>3956</v>
+      </c>
+      <c r="C143">
+        <v>0.127889</v>
+      </c>
+      <c r="D143">
+        <v>0.122787</v>
+      </c>
+      <c r="E143">
+        <v>0.133172</v>
+      </c>
+      <c r="F143">
+        <v>0.005282</v>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>68</v>
+      </c>
+      <c r="B144">
+        <v>3776</v>
+      </c>
+      <c r="C144">
+        <v>0.12207</v>
+      </c>
+      <c r="D144">
+        <v>0.117072</v>
+      </c>
+      <c r="E144">
+        <v>0.127251</v>
+      </c>
+      <c r="F144">
+        <v>0.005181</v>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>64</v>
+      </c>
+      <c r="B145">
+        <v>4109</v>
+      </c>
+      <c r="C145">
+        <v>0.132835</v>
+      </c>
+      <c r="D145">
+        <v>0.127648</v>
+      </c>
+      <c r="E145">
+        <v>0.138201</v>
+      </c>
+      <c r="F145">
+        <v>0.005365</v>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>69</v>
+      </c>
+      <c r="B146">
+        <v>3777</v>
+      </c>
+      <c r="C146">
+        <v>0.122103</v>
+      </c>
+      <c r="D146">
+        <v>0.117104</v>
+      </c>
+      <c r="E146">
+        <v>0.127284</v>
+      </c>
+      <c r="F146">
+        <v>0.005182</v>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>65</v>
+      </c>
+      <c r="B147">
+        <v>3984</v>
+      </c>
+      <c r="C147">
+        <v>0.128794</v>
+      </c>
+      <c r="D147">
+        <v>0.123676</v>
+      </c>
+      <c r="E147">
+        <v>0.134092</v>
+      </c>
+      <c r="F147">
+        <v>0.005298</v>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>70</v>
+      </c>
+      <c r="B148">
+        <v>3756</v>
+      </c>
+      <c r="C148">
+        <v>0.121424</v>
+      </c>
+      <c r="D148">
+        <v>0.116437</v>
+      </c>
+      <c r="E148">
+        <v>0.126593</v>
+      </c>
+      <c r="F148">
+        <v>0.00517</v>
+      </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>66</v>
+      </c>
+      <c r="B149">
+        <v>3965</v>
+      </c>
+      <c r="C149">
+        <v>0.12818</v>
+      </c>
+      <c r="D149">
+        <v>0.123073</v>
+      </c>
+      <c r="E149">
+        <v>0.133467</v>
+      </c>
+      <c r="F149">
+        <v>0.005287</v>
+      </c>
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>71</v>
+      </c>
+      <c r="B150">
+        <v>3610</v>
+      </c>
+      <c r="C150">
+        <v>0.116704</v>
+      </c>
+      <c r="D150">
+        <v>0.111805</v>
+      </c>
+      <c r="E150">
+        <v>0.121788</v>
+      </c>
+      <c r="F150">
+        <v>0.005085</v>
+      </c>
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>63</v>
+      </c>
+      <c r="B155">
+        <v>9281</v>
+      </c>
+      <c r="C155">
+        <v>0.300045</v>
+      </c>
+      <c r="D155">
+        <v>0.293578</v>
+      </c>
+      <c r="E155">
+        <v>0.306593</v>
+      </c>
+      <c r="F155">
+        <v>0.006548</v>
+      </c>
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>64</v>
+      </c>
+      <c r="B156">
+        <v>9612</v>
+      </c>
+      <c r="C156">
+        <v>0.310746</v>
+      </c>
+      <c r="D156">
+        <v>0.304212</v>
+      </c>
+      <c r="E156">
+        <v>0.317356</v>
+      </c>
+      <c r="F156">
+        <v>0.00661</v>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>65</v>
+      </c>
+      <c r="B157">
+        <v>9168</v>
+      </c>
+      <c r="C157">
+        <v>0.296392</v>
+      </c>
+      <c r="D157">
+        <v>0.289948</v>
+      </c>
+      <c r="E157">
+        <v>0.302918</v>
+      </c>
+      <c r="F157">
+        <v>0.006526</v>
+      </c>
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>66</v>
+      </c>
+      <c r="B158">
+        <v>9422</v>
+      </c>
+      <c r="C158">
+        <v>0.304604</v>
+      </c>
+      <c r="D158">
+        <v>0.298107</v>
+      </c>
+      <c r="E158">
+        <v>0.311179</v>
+      </c>
+      <c r="F158">
+        <v>0.006575</v>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>63</v>
+      </c>
+      <c r="B162">
+        <v>3173</v>
+      </c>
+      <c r="C162">
+        <v>0.10258</v>
+      </c>
+      <c r="D162">
+        <v>0.097958</v>
+      </c>
+      <c r="E162">
+        <v>0.107393</v>
+      </c>
+      <c r="F162">
+        <v>0.004814</v>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>68</v>
+      </c>
+      <c r="B163">
+        <v>5155</v>
+      </c>
+      <c r="C163">
+        <v>0.166656</v>
+      </c>
+      <c r="D163">
+        <v>0.160943</v>
+      </c>
+      <c r="E163">
+        <v>0.17253</v>
+      </c>
+      <c r="F163">
+        <v>0.005874</v>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>64</v>
+      </c>
+      <c r="B164">
+        <v>4715</v>
+      </c>
+      <c r="C164">
+        <v>0.152431</v>
+      </c>
+      <c r="D164">
+        <v>0.146927</v>
+      </c>
+      <c r="E164">
+        <v>0.158103</v>
+      </c>
+      <c r="F164">
+        <v>0.005672</v>
+      </c>
+      <c r="G164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>69</v>
+      </c>
+      <c r="B165">
+        <v>5013</v>
+      </c>
+      <c r="C165">
+        <v>0.162065</v>
+      </c>
+      <c r="D165">
+        <v>0.156418</v>
+      </c>
+      <c r="E165">
+        <v>0.167876</v>
+      </c>
+      <c r="F165">
+        <v>0.005811</v>
+      </c>
+      <c r="G165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>65</v>
+      </c>
+      <c r="B166">
+        <v>3058</v>
+      </c>
+      <c r="C166">
+        <v>0.09886200000000001</v>
+      </c>
+      <c r="D166">
+        <v>0.094318</v>
+      </c>
+      <c r="E166">
+        <v>0.1036</v>
+      </c>
+      <c r="F166">
+        <v>0.004738</v>
+      </c>
+      <c r="G166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>70</v>
+      </c>
+      <c r="B167">
+        <v>3043</v>
+      </c>
+      <c r="C167">
+        <v>0.09837700000000001</v>
+      </c>
+      <c r="D167">
+        <v>0.093843</v>
+      </c>
+      <c r="E167">
+        <v>0.103105</v>
+      </c>
+      <c r="F167">
+        <v>0.004728</v>
+      </c>
+      <c r="G167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>66</v>
+      </c>
+      <c r="B168">
+        <v>3643</v>
+      </c>
+      <c r="C168">
+        <v>0.117774</v>
+      </c>
+      <c r="D168">
+        <v>0.112855</v>
+      </c>
+      <c r="E168">
+        <v>0.122879</v>
+      </c>
+      <c r="F168">
+        <v>0.005104</v>
+      </c>
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>71</v>
+      </c>
+      <c r="B169">
+        <v>3132</v>
+      </c>
+      <c r="C169">
+        <v>0.101254</v>
+      </c>
+      <c r="D169">
+        <v>0.09666</v>
+      </c>
+      <c r="E169">
+        <v>0.106041</v>
+      </c>
+      <c r="F169">
+        <v>0.004787</v>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>63</v>
+      </c>
+      <c r="B174">
+        <v>9692</v>
+      </c>
+      <c r="C174">
+        <v>0.313332</v>
+      </c>
+      <c r="D174">
+        <v>0.306783</v>
+      </c>
+      <c r="E174">
+        <v>0.319957</v>
+      </c>
+      <c r="F174">
+        <v>0.006624</v>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>64</v>
+      </c>
+      <c r="B175">
+        <v>9298</v>
+      </c>
+      <c r="C175">
+        <v>0.300595</v>
+      </c>
+      <c r="D175">
+        <v>0.294124</v>
+      </c>
+      <c r="E175">
+        <v>0.307146</v>
+      </c>
+      <c r="F175">
+        <v>0.006551</v>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B176">
+        <v>9393</v>
+      </c>
+      <c r="C176">
+        <v>0.303666</v>
+      </c>
+      <c r="D176">
+        <v>0.297176</v>
+      </c>
+      <c r="E176">
+        <v>0.310236</v>
+      </c>
+      <c r="F176">
+        <v>0.00657</v>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>66</v>
+      </c>
+      <c r="B177">
+        <v>9440</v>
+      </c>
+      <c r="C177">
+        <v>0.305186</v>
+      </c>
+      <c r="D177">
+        <v>0.298686</v>
+      </c>
+      <c r="E177">
+        <v>0.311764</v>
+      </c>
+      <c r="F177">
+        <v>0.006578</v>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>63</v>
+      </c>
+      <c r="B181">
+        <v>3947</v>
+      </c>
+      <c r="C181">
+        <v>0.127602</v>
+      </c>
+      <c r="D181">
+        <v>0.122505</v>
+      </c>
+      <c r="E181">
+        <v>0.13288</v>
+      </c>
+      <c r="F181">
+        <v>0.005277</v>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>68</v>
+      </c>
+      <c r="B182">
+        <v>4373</v>
+      </c>
+      <c r="C182">
+        <v>0.141375</v>
+      </c>
+      <c r="D182">
+        <v>0.136044</v>
+      </c>
+      <c r="E182">
+        <v>0.146878</v>
+      </c>
+      <c r="F182">
+        <v>0.005503</v>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>64</v>
+      </c>
+      <c r="B183">
+        <v>3757</v>
+      </c>
+      <c r="C183">
+        <v>0.12146</v>
+      </c>
+      <c r="D183">
+        <v>0.116473</v>
+      </c>
+      <c r="E183">
+        <v>0.12663</v>
+      </c>
+      <c r="F183">
+        <v>0.00517</v>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>69</v>
+      </c>
+      <c r="B184">
+        <v>4285</v>
+      </c>
+      <c r="C184">
+        <v>0.13853</v>
+      </c>
+      <c r="D184">
+        <v>0.133246</v>
+      </c>
+      <c r="E184">
+        <v>0.143988</v>
+      </c>
+      <c r="F184">
+        <v>0.005458</v>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>65</v>
+      </c>
+      <c r="B185">
+        <v>3745</v>
+      </c>
+      <c r="C185">
+        <v>0.121072</v>
+      </c>
+      <c r="D185">
+        <v>0.116092</v>
+      </c>
+      <c r="E185">
+        <v>0.126235</v>
+      </c>
+      <c r="F185">
+        <v>0.005163</v>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>70</v>
+      </c>
+      <c r="B186">
+        <v>3677</v>
+      </c>
+      <c r="C186">
+        <v>0.118874</v>
+      </c>
+      <c r="D186">
+        <v>0.113934</v>
+      </c>
+      <c r="E186">
+        <v>0.123998</v>
+      </c>
+      <c r="F186">
+        <v>0.005124</v>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>66</v>
+      </c>
+      <c r="B187">
+        <v>3457</v>
+      </c>
+      <c r="C187">
+        <v>0.111761</v>
+      </c>
+      <c r="D187">
+        <v>0.106956</v>
+      </c>
+      <c r="E187">
+        <v>0.116754</v>
+      </c>
+      <c r="F187">
+        <v>0.004993</v>
+      </c>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>71</v>
+      </c>
+      <c r="B188">
+        <v>3691</v>
+      </c>
+      <c r="C188">
+        <v>0.119326</v>
+      </c>
+      <c r="D188">
+        <v>0.114378</v>
+      </c>
+      <c r="E188">
+        <v>0.124458</v>
+      </c>
+      <c r="F188">
+        <v>0.005132</v>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>63</v>
+      </c>
+      <c r="B193">
+        <v>12488</v>
+      </c>
+      <c r="C193">
+        <v>0.403724</v>
+      </c>
+      <c r="D193">
+        <v>0.396776</v>
+      </c>
+      <c r="E193">
+        <v>0.410711</v>
+      </c>
+      <c r="F193">
+        <v>0.006987</v>
+      </c>
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>64</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0.000202</v>
+      </c>
+      <c r="F194">
+        <v>0.000202</v>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>65</v>
+      </c>
+      <c r="B195">
+        <v>12299</v>
+      </c>
+      <c r="C195">
+        <v>0.397614</v>
+      </c>
+      <c r="D195">
+        <v>0.390685</v>
+      </c>
+      <c r="E195">
+        <v>0.404584</v>
+      </c>
+      <c r="F195">
+        <v>0.00697</v>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>66</v>
+      </c>
+      <c r="B196">
+        <v>9668</v>
+      </c>
+      <c r="C196">
+        <v>0.312557</v>
+      </c>
+      <c r="D196">
+        <v>0.306012</v>
+      </c>
+      <c r="E196">
+        <v>0.319177</v>
+      </c>
+      <c r="F196">
+        <v>0.00662</v>
+      </c>
+      <c r="G196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>63</v>
+      </c>
+      <c r="B200">
+        <v>3688</v>
+      </c>
+      <c r="C200">
+        <v>0.119229</v>
+      </c>
+      <c r="D200">
+        <v>0.114283</v>
+      </c>
+      <c r="E200">
+        <v>0.12436</v>
+      </c>
+      <c r="F200">
+        <v>0.00513</v>
+      </c>
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>68</v>
+      </c>
+      <c r="B201">
+        <v>4043</v>
+      </c>
+      <c r="C201">
+        <v>0.130706</v>
+      </c>
+      <c r="D201">
+        <v>0.125555</v>
+      </c>
+      <c r="E201">
+        <v>0.136036</v>
+      </c>
+      <c r="F201">
+        <v>0.00533</v>
+      </c>
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>64</v>
+      </c>
+      <c r="B202">
+        <v>4846</v>
+      </c>
+      <c r="C202">
+        <v>0.156666</v>
+      </c>
+      <c r="D202">
+        <v>0.151098</v>
+      </c>
+      <c r="E202">
+        <v>0.1624</v>
+      </c>
+      <c r="F202">
+        <v>0.005734</v>
+      </c>
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>69</v>
+      </c>
+      <c r="B203">
+        <v>4003</v>
+      </c>
+      <c r="C203">
+        <v>0.129413</v>
+      </c>
+      <c r="D203">
+        <v>0.124284</v>
+      </c>
+      <c r="E203">
+        <v>0.134721</v>
+      </c>
+      <c r="F203">
+        <v>0.005308</v>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>65</v>
+      </c>
+      <c r="B204">
+        <v>3721</v>
+      </c>
+      <c r="C204">
+        <v>0.120296</v>
+      </c>
+      <c r="D204">
+        <v>0.11533</v>
+      </c>
+      <c r="E204">
+        <v>0.125446</v>
+      </c>
+      <c r="F204">
+        <v>0.00515</v>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>70</v>
+      </c>
+      <c r="B205">
+        <v>3280</v>
+      </c>
+      <c r="C205">
+        <v>0.106039</v>
+      </c>
+      <c r="D205">
+        <v>0.101347</v>
+      </c>
+      <c r="E205">
+        <v>0.110921</v>
+      </c>
+      <c r="F205">
+        <v>0.004882</v>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>66</v>
+      </c>
+      <c r="B206">
+        <v>4107</v>
+      </c>
+      <c r="C206">
+        <v>0.132775</v>
+      </c>
+      <c r="D206">
+        <v>0.127588</v>
+      </c>
+      <c r="E206">
+        <v>0.13814</v>
+      </c>
+      <c r="F206">
+        <v>0.005365</v>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>71</v>
+      </c>
+      <c r="B207">
+        <v>3244</v>
+      </c>
+      <c r="C207">
+        <v>0.104875</v>
+      </c>
+      <c r="D207">
+        <v>0.100207</v>
+      </c>
+      <c r="E207">
+        <v>0.109735</v>
+      </c>
+      <c r="F207">
+        <v>0.004859</v>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>63</v>
+      </c>
+      <c r="B212">
+        <v>12488</v>
+      </c>
+      <c r="C212">
+        <v>0.403724</v>
+      </c>
+      <c r="D212">
+        <v>0.396776</v>
+      </c>
+      <c r="E212">
+        <v>0.410711</v>
+      </c>
+      <c r="F212">
+        <v>0.006987</v>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>64</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0.000202</v>
+      </c>
+      <c r="F213">
+        <v>0.000202</v>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>65</v>
+      </c>
+      <c r="B214">
+        <v>12403</v>
+      </c>
+      <c r="C214">
+        <v>0.400976</v>
+      </c>
+      <c r="D214">
+        <v>0.394037</v>
+      </c>
+      <c r="E214">
+        <v>0.407956</v>
+      </c>
+      <c r="F214">
+        <v>0.006979</v>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>66</v>
+      </c>
+      <c r="B215">
+        <v>9614</v>
+      </c>
+      <c r="C215">
+        <v>0.310811</v>
+      </c>
+      <c r="D215">
+        <v>0.304277</v>
+      </c>
+      <c r="E215">
+        <v>0.317421</v>
+      </c>
+      <c r="F215">
+        <v>0.00661</v>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>63</v>
+      </c>
+      <c r="B219">
+        <v>3896</v>
+      </c>
+      <c r="C219">
+        <v>0.125954</v>
+      </c>
+      <c r="D219">
+        <v>0.120885</v>
+      </c>
+      <c r="E219">
+        <v>0.131203</v>
+      </c>
+      <c r="F219">
+        <v>0.005249</v>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>68</v>
+      </c>
+      <c r="B220">
+        <v>3923</v>
+      </c>
+      <c r="C220">
+        <v>0.126827</v>
+      </c>
+      <c r="D220">
+        <v>0.121743</v>
+      </c>
+      <c r="E220">
+        <v>0.132091</v>
+      </c>
+      <c r="F220">
+        <v>0.005264</v>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>64</v>
+      </c>
+      <c r="B221">
+        <v>4615</v>
+      </c>
+      <c r="C221">
+        <v>0.149198</v>
+      </c>
+      <c r="D221">
+        <v>0.143744</v>
+      </c>
+      <c r="E221">
+        <v>0.154822</v>
+      </c>
+      <c r="F221">
+        <v>0.005624</v>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>69</v>
+      </c>
+      <c r="B222">
+        <v>3895</v>
+      </c>
+      <c r="C222">
+        <v>0.125921</v>
+      </c>
+      <c r="D222">
+        <v>0.120854</v>
+      </c>
+      <c r="E222">
+        <v>0.13117</v>
+      </c>
+      <c r="F222">
+        <v>0.005249</v>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>65</v>
+      </c>
+      <c r="B223">
+        <v>3959</v>
+      </c>
+      <c r="C223">
+        <v>0.12799</v>
+      </c>
+      <c r="D223">
+        <v>0.122886</v>
+      </c>
+      <c r="E223">
+        <v>0.133274</v>
+      </c>
+      <c r="F223">
+        <v>0.005284</v>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>70</v>
+      </c>
+      <c r="B224">
+        <v>3311</v>
+      </c>
+      <c r="C224">
+        <v>0.107041</v>
+      </c>
+      <c r="D224">
+        <v>0.102329</v>
+      </c>
+      <c r="E224">
+        <v>0.111943</v>
+      </c>
+      <c r="F224">
+        <v>0.004902</v>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>66</v>
+      </c>
+      <c r="B225">
+        <v>3997</v>
+      </c>
+      <c r="C225">
+        <v>0.129219</v>
+      </c>
+      <c r="D225">
+        <v>0.124093</v>
+      </c>
+      <c r="E225">
+        <v>0.134524</v>
+      </c>
+      <c r="F225">
+        <v>0.005305</v>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>71</v>
+      </c>
+      <c r="B226">
+        <v>3336</v>
+      </c>
+      <c r="C226">
+        <v>0.107849</v>
+      </c>
+      <c r="D226">
+        <v>0.103121</v>
+      </c>
+      <c r="E226">
+        <v>0.112767</v>
+      </c>
+      <c r="F226">
+        <v>0.004918</v>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>63</v>
+      </c>
+      <c r="B231">
+        <v>12376</v>
+      </c>
+      <c r="C231">
+        <v>0.400103</v>
+      </c>
+      <c r="D231">
+        <v>0.393167</v>
+      </c>
+      <c r="E231">
+        <v>0.407081</v>
+      </c>
+      <c r="F231">
+        <v>0.006977</v>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>64</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0.000202</v>
+      </c>
+      <c r="F232">
+        <v>0.000202</v>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>65</v>
+      </c>
+      <c r="B233">
+        <v>12362</v>
+      </c>
+      <c r="C233">
+        <v>0.399651</v>
+      </c>
+      <c r="D233">
+        <v>0.392715</v>
+      </c>
+      <c r="E233">
+        <v>0.406627</v>
+      </c>
+      <c r="F233">
+        <v>0.006976</v>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>66</v>
+      </c>
+      <c r="B234">
+        <v>9707</v>
+      </c>
+      <c r="C234">
+        <v>0.313817</v>
+      </c>
+      <c r="D234">
+        <v>0.307265</v>
+      </c>
+      <c r="E234">
+        <v>0.320445</v>
+      </c>
+      <c r="F234">
+        <v>0.006627</v>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>63</v>
+      </c>
+      <c r="B238">
+        <v>3621</v>
+      </c>
+      <c r="C238">
+        <v>0.117063</v>
+      </c>
+      <c r="D238">
+        <v>0.112157</v>
+      </c>
+      <c r="E238">
+        <v>0.122154</v>
+      </c>
+      <c r="F238">
+        <v>0.005091</v>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>68</v>
+      </c>
+      <c r="B239">
+        <v>4010</v>
+      </c>
+      <c r="C239">
+        <v>0.129639</v>
+      </c>
+      <c r="D239">
+        <v>0.124506</v>
+      </c>
+      <c r="E239">
+        <v>0.134951</v>
+      </c>
+      <c r="F239">
+        <v>0.005312</v>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>64</v>
+      </c>
+      <c r="B240">
+        <v>4844</v>
+      </c>
+      <c r="C240">
+        <v>0.156602</v>
+      </c>
+      <c r="D240">
+        <v>0.151034</v>
+      </c>
+      <c r="E240">
+        <v>0.162335</v>
+      </c>
+      <c r="F240">
+        <v>0.005733</v>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>69</v>
+      </c>
+      <c r="B241">
+        <v>3979</v>
+      </c>
+      <c r="C241">
+        <v>0.128637</v>
+      </c>
+      <c r="D241">
+        <v>0.123521</v>
+      </c>
+      <c r="E241">
+        <v>0.133932</v>
+      </c>
+      <c r="F241">
+        <v>0.005295</v>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>65</v>
+      </c>
+      <c r="B242">
+        <v>3787</v>
+      </c>
+      <c r="C242">
+        <v>0.12243</v>
+      </c>
+      <c r="D242">
+        <v>0.117425</v>
+      </c>
+      <c r="E242">
+        <v>0.127617</v>
+      </c>
+      <c r="F242">
+        <v>0.005188</v>
+      </c>
+      <c r="G242" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>70</v>
+      </c>
+      <c r="B243">
+        <v>3286</v>
+      </c>
+      <c r="C243">
+        <v>0.106233</v>
+      </c>
+      <c r="D243">
+        <v>0.101537</v>
+      </c>
+      <c r="E243">
+        <v>0.111119</v>
+      </c>
+      <c r="F243">
+        <v>0.004886</v>
+      </c>
+      <c r="G243" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>66</v>
+      </c>
+      <c r="B244">
+        <v>4128</v>
+      </c>
+      <c r="C244">
+        <v>0.133454</v>
+      </c>
+      <c r="D244">
+        <v>0.128255</v>
+      </c>
+      <c r="E244">
+        <v>0.13883</v>
+      </c>
+      <c r="F244">
+        <v>0.005376</v>
+      </c>
+      <c r="G244" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>71</v>
+      </c>
+      <c r="B245">
+        <v>3277</v>
+      </c>
+      <c r="C245">
+        <v>0.105942</v>
+      </c>
+      <c r="D245">
+        <v>0.101252</v>
+      </c>
+      <c r="E245">
+        <v>0.110823</v>
+      </c>
+      <c r="F245">
+        <v>0.00488</v>
+      </c>
+      <c r="G245" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>63</v>
+      </c>
+      <c r="B250">
+        <v>9324</v>
+      </c>
+      <c r="C250">
+        <v>0.301435</v>
+      </c>
+      <c r="D250">
+        <v>0.294959</v>
+      </c>
+      <c r="E250">
+        <v>0.307992</v>
+      </c>
+      <c r="F250">
+        <v>0.006556</v>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>64</v>
+      </c>
+      <c r="B251">
+        <v>9482</v>
+      </c>
+      <c r="C251">
+        <v>0.306543</v>
+      </c>
+      <c r="D251">
+        <v>0.300035</v>
+      </c>
+      <c r="E251">
+        <v>0.31313</v>
+      </c>
+      <c r="F251">
+        <v>0.006586</v>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>65</v>
+      </c>
+      <c r="B252">
+        <v>9498</v>
+      </c>
+      <c r="C252">
+        <v>0.307061</v>
+      </c>
+      <c r="D252">
+        <v>0.300549</v>
+      </c>
+      <c r="E252">
+        <v>0.31365</v>
+      </c>
+      <c r="F252">
+        <v>0.006589</v>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>66</v>
+      </c>
+      <c r="B253">
+        <v>9421</v>
+      </c>
+      <c r="C253">
+        <v>0.304571</v>
+      </c>
+      <c r="D253">
+        <v>0.298075</v>
+      </c>
+      <c r="E253">
+        <v>0.311146</v>
+      </c>
+      <c r="F253">
+        <v>0.006575</v>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>63</v>
+      </c>
+      <c r="B257">
+        <v>4115</v>
+      </c>
+      <c r="C257">
+        <v>0.133034</v>
+      </c>
+      <c r="D257">
+        <v>0.127842</v>
+      </c>
+      <c r="E257">
+        <v>0.138403</v>
+      </c>
+      <c r="F257">
+        <v>0.005369</v>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>68</v>
+      </c>
+      <c r="B258">
+        <v>3614</v>
+      </c>
+      <c r="C258">
+        <v>0.116837</v>
+      </c>
+      <c r="D258">
+        <v>0.111935</v>
+      </c>
+      <c r="E258">
+        <v>0.121924</v>
+      </c>
+      <c r="F258">
+        <v>0.005087</v>
+      </c>
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>64</v>
+      </c>
+      <c r="B259">
+        <v>4187</v>
+      </c>
+      <c r="C259">
+        <v>0.135361</v>
+      </c>
+      <c r="D259">
+        <v>0.130131</v>
+      </c>
+      <c r="E259">
+        <v>0.140768</v>
+      </c>
+      <c r="F259">
+        <v>0.005407</v>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>69</v>
+      </c>
+      <c r="B260">
+        <v>3628</v>
+      </c>
+      <c r="C260">
+        <v>0.11729</v>
+      </c>
+      <c r="D260">
+        <v>0.112379</v>
+      </c>
+      <c r="E260">
+        <v>0.122385</v>
+      </c>
+      <c r="F260">
+        <v>0.005095</v>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>65</v>
+      </c>
+      <c r="B261">
+        <v>4169</v>
+      </c>
+      <c r="C261">
+        <v>0.13478</v>
+      </c>
+      <c r="D261">
+        <v>0.129558</v>
+      </c>
+      <c r="E261">
+        <v>0.140177</v>
+      </c>
+      <c r="F261">
+        <v>0.005398</v>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>70</v>
+      </c>
+      <c r="B262">
+        <v>3532</v>
+      </c>
+      <c r="C262">
+        <v>0.114186</v>
+      </c>
+      <c r="D262">
+        <v>0.109334</v>
+      </c>
+      <c r="E262">
+        <v>0.119224</v>
+      </c>
+      <c r="F262">
+        <v>0.005038</v>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>66</v>
+      </c>
+      <c r="B263">
+        <v>4096</v>
+      </c>
+      <c r="C263">
+        <v>0.13242</v>
+      </c>
+      <c r="D263">
+        <v>0.127239</v>
+      </c>
+      <c r="E263">
+        <v>0.137778</v>
+      </c>
+      <c r="F263">
+        <v>0.005359</v>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>71</v>
+      </c>
+      <c r="B264">
+        <v>3591</v>
+      </c>
+      <c r="C264">
+        <v>0.116093</v>
+      </c>
+      <c r="D264">
+        <v>0.111206</v>
+      </c>
+      <c r="E264">
+        <v>0.121167</v>
+      </c>
+      <c r="F264">
+        <v>0.005073</v>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G268" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>63</v>
+      </c>
+      <c r="B269">
+        <v>9420</v>
+      </c>
+      <c r="C269">
+        <v>0.304539</v>
+      </c>
+      <c r="D269">
+        <v>0.298043</v>
+      </c>
+      <c r="E269">
+        <v>0.311114</v>
+      </c>
+      <c r="F269">
+        <v>0.006575</v>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>64</v>
+      </c>
+      <c r="B270">
+        <v>9465</v>
+      </c>
+      <c r="C270">
+        <v>0.305994</v>
+      </c>
+      <c r="D270">
+        <v>0.299489</v>
+      </c>
+      <c r="E270">
+        <v>0.312577</v>
+      </c>
+      <c r="F270">
+        <v>0.006583</v>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>65</v>
+      </c>
+      <c r="B271">
+        <v>9437</v>
+      </c>
+      <c r="C271">
+        <v>0.305089</v>
+      </c>
+      <c r="D271">
+        <v>0.298589</v>
+      </c>
+      <c r="E271">
+        <v>0.311666</v>
+      </c>
+      <c r="F271">
+        <v>0.006578</v>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>66</v>
+      </c>
+      <c r="B272">
+        <v>9403</v>
+      </c>
+      <c r="C272">
+        <v>0.303989</v>
+      </c>
+      <c r="D272">
+        <v>0.297497</v>
+      </c>
+      <c r="E272">
+        <v>0.310561</v>
+      </c>
+      <c r="F272">
+        <v>0.006571</v>
+      </c>
+      <c r="G272" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>63</v>
+      </c>
+      <c r="B276">
+        <v>4155</v>
+      </c>
+      <c r="C276">
+        <v>0.134327</v>
+      </c>
+      <c r="D276">
+        <v>0.129114</v>
+      </c>
+      <c r="E276">
+        <v>0.139717</v>
+      </c>
+      <c r="F276">
+        <v>0.00539</v>
+      </c>
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>68</v>
+      </c>
+      <c r="B277">
+        <v>3629</v>
+      </c>
+      <c r="C277">
+        <v>0.117322</v>
+      </c>
+      <c r="D277">
+        <v>0.112411</v>
+      </c>
+      <c r="E277">
+        <v>0.122418</v>
+      </c>
+      <c r="F277">
+        <v>0.005096</v>
+      </c>
+      <c r="G277" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>64</v>
+      </c>
+      <c r="B278">
+        <v>4181</v>
+      </c>
+      <c r="C278">
+        <v>0.135167</v>
+      </c>
+      <c r="D278">
+        <v>0.12994</v>
+      </c>
+      <c r="E278">
+        <v>0.140571</v>
+      </c>
+      <c r="F278">
+        <v>0.005404</v>
+      </c>
+      <c r="G278" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>69</v>
+      </c>
+      <c r="B279">
+        <v>3618</v>
+      </c>
+      <c r="C279">
+        <v>0.116966</v>
+      </c>
+      <c r="D279">
+        <v>0.112062</v>
+      </c>
+      <c r="E279">
+        <v>0.122056</v>
+      </c>
+      <c r="F279">
+        <v>0.005089</v>
+      </c>
+      <c r="G279" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>65</v>
+      </c>
+      <c r="B280">
+        <v>4128</v>
+      </c>
+      <c r="C280">
+        <v>0.133454</v>
+      </c>
+      <c r="D280">
+        <v>0.128255</v>
+      </c>
+      <c r="E280">
+        <v>0.13883</v>
+      </c>
+      <c r="F280">
+        <v>0.005376</v>
+      </c>
+      <c r="G280" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>70</v>
+      </c>
+      <c r="B281">
+        <v>3531</v>
+      </c>
+      <c r="C281">
+        <v>0.114154</v>
+      </c>
+      <c r="D281">
+        <v>0.109303</v>
+      </c>
+      <c r="E281">
+        <v>0.119191</v>
+      </c>
+      <c r="F281">
+        <v>0.005038</v>
+      </c>
+      <c r="G281" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>66</v>
+      </c>
+      <c r="B282">
+        <v>4093</v>
+      </c>
+      <c r="C282">
+        <v>0.132323</v>
+      </c>
+      <c r="D282">
+        <v>0.127143</v>
+      </c>
+      <c r="E282">
+        <v>0.13768</v>
+      </c>
+      <c r="F282">
+        <v>0.005357</v>
+      </c>
+      <c r="G282" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>71</v>
+      </c>
+      <c r="B283">
+        <v>3597</v>
+      </c>
+      <c r="C283">
+        <v>0.116287</v>
+      </c>
+      <c r="D283">
+        <v>0.111396</v>
+      </c>
+      <c r="E283">
+        <v>0.121364</v>
+      </c>
+      <c r="F283">
+        <v>0.005077</v>
+      </c>
+      <c r="G283" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F287" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G287" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>63</v>
+      </c>
+      <c r="B288">
+        <v>9240</v>
+      </c>
+      <c r="C288">
+        <v>0.29872</v>
+      </c>
+      <c r="D288">
+        <v>0.292261</v>
+      </c>
+      <c r="E288">
+        <v>0.30526</v>
+      </c>
+      <c r="F288">
+        <v>0.00654</v>
+      </c>
+      <c r="G288" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>64</v>
+      </c>
+      <c r="B289">
+        <v>9528</v>
+      </c>
+      <c r="C289">
+        <v>0.308031</v>
+      </c>
+      <c r="D289">
+        <v>0.301513</v>
+      </c>
+      <c r="E289">
+        <v>0.314625</v>
+      </c>
+      <c r="F289">
+        <v>0.006595</v>
+      </c>
+      <c r="G289" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>65</v>
+      </c>
+      <c r="B290">
+        <v>9370</v>
+      </c>
+      <c r="C290">
+        <v>0.302923</v>
+      </c>
+      <c r="D290">
+        <v>0.296437</v>
+      </c>
+      <c r="E290">
+        <v>0.309488</v>
+      </c>
+      <c r="F290">
+        <v>0.006565</v>
+      </c>
+      <c r="G290" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>66</v>
+      </c>
+      <c r="B291">
+        <v>9599</v>
+      </c>
+      <c r="C291">
+        <v>0.310326</v>
+      </c>
+      <c r="D291">
+        <v>0.303795</v>
+      </c>
+      <c r="E291">
+        <v>0.316934</v>
+      </c>
+      <c r="F291">
+        <v>0.006608</v>
+      </c>
+      <c r="G291" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F294" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G294" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>63</v>
+      </c>
+      <c r="B295">
+        <v>3711</v>
+      </c>
+      <c r="C295">
+        <v>0.119973</v>
+      </c>
+      <c r="D295">
+        <v>0.115013</v>
+      </c>
+      <c r="E295">
+        <v>0.125117</v>
+      </c>
+      <c r="F295">
+        <v>0.005144</v>
+      </c>
+      <c r="G295" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>68</v>
+      </c>
+      <c r="B296">
+        <v>3911</v>
+      </c>
+      <c r="C296">
+        <v>0.126439</v>
+      </c>
+      <c r="D296">
+        <v>0.121362</v>
+      </c>
+      <c r="E296">
+        <v>0.131696</v>
+      </c>
+      <c r="F296">
+        <v>0.005257</v>
+      </c>
+      <c r="G296" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>64</v>
+      </c>
+      <c r="B297">
+        <v>4464</v>
+      </c>
+      <c r="C297">
+        <v>0.144317</v>
+      </c>
+      <c r="D297">
+        <v>0.138939</v>
+      </c>
+      <c r="E297">
+        <v>0.149866</v>
+      </c>
+      <c r="F297">
+        <v>0.005549</v>
+      </c>
+      <c r="G297" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>69</v>
+      </c>
+      <c r="B298">
+        <v>3752</v>
+      </c>
+      <c r="C298">
+        <v>0.121298</v>
+      </c>
+      <c r="D298">
+        <v>0.116314</v>
+      </c>
+      <c r="E298">
+        <v>0.126466</v>
+      </c>
+      <c r="F298">
+        <v>0.005167</v>
+      </c>
+      <c r="G298" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>65</v>
+      </c>
+      <c r="B299">
+        <v>3601</v>
+      </c>
+      <c r="C299">
+        <v>0.116417</v>
+      </c>
+      <c r="D299">
+        <v>0.111523</v>
+      </c>
+      <c r="E299">
+        <v>0.121496</v>
+      </c>
+      <c r="F299">
+        <v>0.005079</v>
+      </c>
+      <c r="G299" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>70</v>
+      </c>
+      <c r="B300">
+        <v>3607</v>
+      </c>
+      <c r="C300">
+        <v>0.116611</v>
+      </c>
+      <c r="D300">
+        <v>0.111713</v>
+      </c>
+      <c r="E300">
+        <v>0.121694</v>
+      </c>
+      <c r="F300">
+        <v>0.005083</v>
+      </c>
+      <c r="G300" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>66</v>
+      </c>
+      <c r="B301">
+        <v>4269</v>
+      </c>
+      <c r="C301">
+        <v>0.138012</v>
+      </c>
+      <c r="D301">
+        <v>0.132737</v>
+      </c>
+      <c r="E301">
+        <v>0.143462</v>
+      </c>
+      <c r="F301">
+        <v>0.00545</v>
+      </c>
+      <c r="G301" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>71</v>
+      </c>
+      <c r="B302">
+        <v>3617</v>
+      </c>
+      <c r="C302">
+        <v>0.116934</v>
+      </c>
+      <c r="D302">
+        <v>0.11203</v>
+      </c>
+      <c r="E302">
+        <v>0.122023</v>
+      </c>
+      <c r="F302">
+        <v>0.005089</v>
+      </c>
+      <c r="G302" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E306" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F306" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G306" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>63</v>
+      </c>
+      <c r="B307">
+        <v>9341</v>
+      </c>
+      <c r="C307">
+        <v>0.301985</v>
+      </c>
+      <c r="D307">
+        <v>0.295505</v>
+      </c>
+      <c r="E307">
+        <v>0.308545</v>
+      </c>
+      <c r="F307">
+        <v>0.00656</v>
+      </c>
+      <c r="G307" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>64</v>
+      </c>
+      <c r="B308">
+        <v>9463</v>
+      </c>
+      <c r="C308">
+        <v>0.305929</v>
+      </c>
+      <c r="D308">
+        <v>0.299425</v>
+      </c>
+      <c r="E308">
+        <v>0.312512</v>
+      </c>
+      <c r="F308">
+        <v>0.006583</v>
+      </c>
+      <c r="G308" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>65</v>
+      </c>
+      <c r="B309">
+        <v>9516</v>
+      </c>
+      <c r="C309">
+        <v>0.307643</v>
+      </c>
+      <c r="D309">
+        <v>0.301128</v>
+      </c>
+      <c r="E309">
+        <v>0.314235</v>
+      </c>
+      <c r="F309">
+        <v>0.006593</v>
+      </c>
+      <c r="G309" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>66</v>
+      </c>
+      <c r="B310">
+        <v>9511</v>
+      </c>
+      <c r="C310">
+        <v>0.307481</v>
+      </c>
+      <c r="D310">
+        <v>0.300967</v>
+      </c>
+      <c r="E310">
+        <v>0.314073</v>
+      </c>
+      <c r="F310">
+        <v>0.006592</v>
+      </c>
+      <c r="G310" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F313" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G313" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>63</v>
+      </c>
+      <c r="B314">
+        <v>4037</v>
+      </c>
+      <c r="C314">
+        <v>0.130512</v>
+      </c>
+      <c r="D314">
+        <v>0.125364</v>
+      </c>
+      <c r="E314">
+        <v>0.135839</v>
+      </c>
+      <c r="F314">
+        <v>0.005327</v>
+      </c>
+      <c r="G314" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>68</v>
+      </c>
+      <c r="B315">
+        <v>3660</v>
+      </c>
+      <c r="C315">
+        <v>0.118324</v>
+      </c>
+      <c r="D315">
+        <v>0.113394</v>
+      </c>
+      <c r="E315">
+        <v>0.123438</v>
+      </c>
+      <c r="F315">
+        <v>0.005114</v>
+      </c>
+      <c r="G315" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>64</v>
+      </c>
+      <c r="B316">
+        <v>4160</v>
+      </c>
+      <c r="C316">
+        <v>0.134489</v>
+      </c>
+      <c r="D316">
+        <v>0.129272</v>
+      </c>
+      <c r="E316">
+        <v>0.139881</v>
+      </c>
+      <c r="F316">
+        <v>0.005393</v>
+      </c>
+      <c r="G316" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>69</v>
+      </c>
+      <c r="B317">
+        <v>3611</v>
+      </c>
+      <c r="C317">
+        <v>0.11674</v>
+      </c>
+      <c r="D317">
+        <v>0.11184</v>
+      </c>
+      <c r="E317">
+        <v>0.121825</v>
+      </c>
+      <c r="F317">
+        <v>0.005085</v>
+      </c>
+      <c r="G317" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" t="s">
+        <v>65</v>
+      </c>
+      <c r="B318">
+        <v>4069</v>
+      </c>
+      <c r="C318">
+        <v>0.131547</v>
+      </c>
+      <c r="D318">
+        <v>0.126381</v>
+      </c>
+      <c r="E318">
+        <v>0.136891</v>
+      </c>
+      <c r="F318">
+        <v>0.005344</v>
+      </c>
+      <c r="G318" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>70</v>
+      </c>
+      <c r="B319">
+        <v>3705</v>
+      </c>
+      <c r="C319">
+        <v>0.119779</v>
+      </c>
+      <c r="D319">
+        <v>0.114822</v>
+      </c>
+      <c r="E319">
+        <v>0.124919</v>
+      </c>
+      <c r="F319">
+        <v>0.00514</v>
+      </c>
+      <c r="G319" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" t="s">
+        <v>66</v>
+      </c>
+      <c r="B320">
+        <v>4129</v>
+      </c>
+      <c r="C320">
+        <v>0.133486</v>
+      </c>
+      <c r="D320">
+        <v>0.128287</v>
+      </c>
+      <c r="E320">
+        <v>0.138863</v>
+      </c>
+      <c r="F320">
+        <v>0.005376</v>
+      </c>
+      <c r="G320" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>71</v>
+      </c>
+      <c r="B321">
+        <v>3561</v>
+      </c>
+      <c r="C321">
+        <v>0.115123</v>
+      </c>
+      <c r="D321">
+        <v>0.110254</v>
+      </c>
+      <c r="E321">
+        <v>0.120179</v>
+      </c>
+      <c r="F321">
+        <v>0.005056</v>
+      </c>
+      <c r="G321" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F325" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G325" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" t="s">
+        <v>63</v>
+      </c>
+      <c r="B326">
+        <v>9224</v>
+      </c>
+      <c r="C326">
+        <v>0.298203</v>
+      </c>
+      <c r="D326">
+        <v>0.291747</v>
+      </c>
+      <c r="E326">
+        <v>0.304739</v>
+      </c>
+      <c r="F326">
+        <v>0.006537</v>
+      </c>
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" t="s">
+        <v>64</v>
+      </c>
+      <c r="B327">
+        <v>9493</v>
+      </c>
+      <c r="C327">
+        <v>0.306899</v>
+      </c>
+      <c r="D327">
+        <v>0.300389</v>
+      </c>
+      <c r="E327">
+        <v>0.313487</v>
+      </c>
+      <c r="F327">
+        <v>0.006588</v>
+      </c>
+      <c r="G327" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" t="s">
+        <v>65</v>
+      </c>
+      <c r="B328">
+        <v>9387</v>
+      </c>
+      <c r="C328">
+        <v>0.303472</v>
+      </c>
+      <c r="D328">
+        <v>0.296983</v>
+      </c>
+      <c r="E328">
+        <v>0.310041</v>
+      </c>
+      <c r="F328">
+        <v>0.006568</v>
+      </c>
+      <c r="G328" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" t="s">
+        <v>66</v>
+      </c>
+      <c r="B329">
+        <v>9599</v>
+      </c>
+      <c r="C329">
+        <v>0.310326</v>
+      </c>
+      <c r="D329">
+        <v>0.303795</v>
+      </c>
+      <c r="E329">
+        <v>0.316934</v>
+      </c>
+      <c r="F329">
+        <v>0.006608</v>
+      </c>
+      <c r="G329" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F332" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G332" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" t="s">
+        <v>63</v>
+      </c>
+      <c r="B333">
+        <v>3799</v>
+      </c>
+      <c r="C333">
+        <v>0.122818</v>
+      </c>
+      <c r="D333">
+        <v>0.117806</v>
+      </c>
+      <c r="E333">
+        <v>0.128012</v>
+      </c>
+      <c r="F333">
+        <v>0.005194</v>
+      </c>
+      <c r="G333" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" t="s">
+        <v>68</v>
+      </c>
+      <c r="B334">
+        <v>3819</v>
+      </c>
+      <c r="C334">
+        <v>0.123464</v>
+      </c>
+      <c r="D334">
+        <v>0.118441</v>
+      </c>
+      <c r="E334">
+        <v>0.12867</v>
+      </c>
+      <c r="F334">
+        <v>0.005206</v>
+      </c>
+      <c r="G334" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" t="s">
+        <v>64</v>
+      </c>
+      <c r="B335">
+        <v>4414</v>
+      </c>
+      <c r="C335">
+        <v>0.1427</v>
+      </c>
+      <c r="D335">
+        <v>0.137349</v>
+      </c>
+      <c r="E335">
+        <v>0.148224</v>
+      </c>
+      <c r="F335">
+        <v>0.005524</v>
+      </c>
+      <c r="G335" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" t="s">
+        <v>69</v>
+      </c>
+      <c r="B336">
+        <v>3666</v>
+      </c>
+      <c r="C336">
+        <v>0.118518</v>
+      </c>
+      <c r="D336">
+        <v>0.113585</v>
+      </c>
+      <c r="E336">
+        <v>0.123636</v>
+      </c>
+      <c r="F336">
+        <v>0.005118</v>
+      </c>
+      <c r="G336" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" t="s">
+        <v>65</v>
+      </c>
+      <c r="B337">
+        <v>3801</v>
+      </c>
+      <c r="C337">
+        <v>0.122882</v>
+      </c>
+      <c r="D337">
+        <v>0.117869</v>
+      </c>
+      <c r="E337">
+        <v>0.128078</v>
+      </c>
+      <c r="F337">
+        <v>0.005196</v>
+      </c>
+      <c r="G337" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" t="s">
+        <v>70</v>
+      </c>
+      <c r="B338">
+        <v>3611</v>
+      </c>
+      <c r="C338">
+        <v>0.11674</v>
+      </c>
+      <c r="D338">
+        <v>0.11184</v>
+      </c>
+      <c r="E338">
+        <v>0.121825</v>
+      </c>
+      <c r="F338">
+        <v>0.005085</v>
+      </c>
+      <c r="G338" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" t="s">
+        <v>66</v>
+      </c>
+      <c r="B339">
+        <v>4228</v>
+      </c>
+      <c r="C339">
+        <v>0.136687</v>
+      </c>
+      <c r="D339">
+        <v>0.131434</v>
+      </c>
+      <c r="E339">
+        <v>0.142116</v>
+      </c>
+      <c r="F339">
+        <v>0.005429</v>
+      </c>
+      <c r="G339" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" t="s">
+        <v>71</v>
+      </c>
+      <c r="B340">
+        <v>3594</v>
+      </c>
+      <c r="C340">
+        <v>0.11619</v>
+      </c>
+      <c r="D340">
+        <v>0.111301</v>
+      </c>
+      <c r="E340">
+        <v>0.121266</v>
+      </c>
+      <c r="F340">
+        <v>0.005075</v>
+      </c>
+      <c r="G340" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E344" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F344" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G344" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" t="s">
+        <v>63</v>
+      </c>
+      <c r="B345">
+        <v>9344</v>
+      </c>
+      <c r="C345">
+        <v>0.302082</v>
+      </c>
+      <c r="D345">
+        <v>0.295602</v>
+      </c>
+      <c r="E345">
+        <v>0.308642</v>
+      </c>
+      <c r="F345">
+        <v>0.00656</v>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" t="s">
+        <v>64</v>
+      </c>
+      <c r="B346">
+        <v>9405</v>
+      </c>
+      <c r="C346">
+        <v>0.304054</v>
+      </c>
+      <c r="D346">
+        <v>0.297561</v>
+      </c>
+      <c r="E346">
+        <v>0.310626</v>
+      </c>
+      <c r="F346">
+        <v>0.006572</v>
+      </c>
+      <c r="G346" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" t="s">
+        <v>65</v>
+      </c>
+      <c r="B347">
+        <v>9470</v>
+      </c>
+      <c r="C347">
+        <v>0.306155</v>
+      </c>
+      <c r="D347">
+        <v>0.29965</v>
+      </c>
+      <c r="E347">
+        <v>0.312739</v>
+      </c>
+      <c r="F347">
+        <v>0.006584</v>
+      </c>
+      <c r="G347" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" t="s">
+        <v>66</v>
+      </c>
+      <c r="B348">
+        <v>9456</v>
+      </c>
+      <c r="C348">
+        <v>0.305703</v>
+      </c>
+      <c r="D348">
+        <v>0.2992</v>
+      </c>
+      <c r="E348">
+        <v>0.312284</v>
+      </c>
+      <c r="F348">
+        <v>0.006581</v>
+      </c>
+      <c r="G348" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E351" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F351" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G351" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" t="s">
+        <v>63</v>
+      </c>
+      <c r="B352">
+        <v>4072</v>
+      </c>
+      <c r="C352">
+        <v>0.131644</v>
+      </c>
+      <c r="D352">
+        <v>0.126476</v>
+      </c>
+      <c r="E352">
+        <v>0.136989</v>
+      </c>
+      <c r="F352">
+        <v>0.005346</v>
+      </c>
+      <c r="G352" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" t="s">
+        <v>68</v>
+      </c>
+      <c r="B353">
+        <v>3560</v>
+      </c>
+      <c r="C353">
+        <v>0.115091</v>
+      </c>
+      <c r="D353">
+        <v>0.110222</v>
+      </c>
+      <c r="E353">
+        <v>0.120146</v>
+      </c>
+      <c r="F353">
+        <v>0.005055</v>
+      </c>
+      <c r="G353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" t="s">
+        <v>64</v>
+      </c>
+      <c r="B354">
+        <v>4099</v>
+      </c>
+      <c r="C354">
+        <v>0.132516</v>
+      </c>
+      <c r="D354">
+        <v>0.127334</v>
+      </c>
+      <c r="E354">
+        <v>0.137877</v>
+      </c>
+      <c r="F354">
+        <v>0.00536</v>
+      </c>
+      <c r="G354" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" t="s">
+        <v>69</v>
+      </c>
+      <c r="B355">
+        <v>3626</v>
+      </c>
+      <c r="C355">
+        <v>0.117225</v>
+      </c>
+      <c r="D355">
+        <v>0.112316</v>
+      </c>
+      <c r="E355">
+        <v>0.122319</v>
+      </c>
+      <c r="F355">
+        <v>0.005094</v>
+      </c>
+      <c r="G355" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" t="s">
+        <v>65</v>
+      </c>
+      <c r="B356">
+        <v>4119</v>
+      </c>
+      <c r="C356">
+        <v>0.133163</v>
+      </c>
+      <c r="D356">
+        <v>0.127969</v>
+      </c>
+      <c r="E356">
+        <v>0.138534</v>
+      </c>
+      <c r="F356">
+        <v>0.005371</v>
+      </c>
+      <c r="G356" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" t="s">
+        <v>70</v>
+      </c>
+      <c r="B357">
+        <v>3665</v>
+      </c>
+      <c r="C357">
+        <v>0.118486</v>
+      </c>
+      <c r="D357">
+        <v>0.113553</v>
+      </c>
+      <c r="E357">
+        <v>0.123603</v>
+      </c>
+      <c r="F357">
+        <v>0.005117</v>
+      </c>
+      <c r="G357" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" t="s">
+        <v>66</v>
+      </c>
+      <c r="B358">
+        <v>4160</v>
+      </c>
+      <c r="C358">
+        <v>0.134489</v>
+      </c>
+      <c r="D358">
+        <v>0.129272</v>
+      </c>
+      <c r="E358">
+        <v>0.139881</v>
+      </c>
+      <c r="F358">
+        <v>0.005393</v>
+      </c>
+      <c r="G358" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" t="s">
+        <v>71</v>
+      </c>
+      <c r="B359">
+        <v>3631</v>
+      </c>
+      <c r="C359">
+        <v>0.117387</v>
+      </c>
+      <c r="D359">
+        <v>0.112474</v>
+      </c>
+      <c r="E359">
+        <v>0.122484</v>
+      </c>
+      <c r="F359">
+        <v>0.005097</v>
+      </c>
+      <c r="G359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BDs/BDXL/r+_BDXL_3.09w.xlsx
+++ b/BDs/BDXL/r+_BDXL_3.09w.xlsx
@@ -12920,13 +12920,13 @@
         <v>3.580056208146154E-10</v>
       </c>
       <c r="D57">
+        <v>9355</v>
+      </c>
+      <c r="E57">
         <v>8530</v>
       </c>
-      <c r="E57">
-        <v>9355</v>
-      </c>
       <c r="F57">
-        <v>-0.026671</v>
+        <v>0.026671</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -12940,13 +12940,13 @@
         <v>6.799975643219057E-10</v>
       </c>
       <c r="D58">
+        <v>9341</v>
+      </c>
+      <c r="E58">
         <v>8530</v>
       </c>
-      <c r="E58">
-        <v>9341</v>
-      </c>
       <c r="F58">
-        <v>-0.026218</v>
+        <v>0.026218</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -12980,13 +12980,13 @@
         <v>1.458536093759293E-13</v>
       </c>
       <c r="D60">
+        <v>9435</v>
+      </c>
+      <c r="E60">
         <v>8458</v>
       </c>
-      <c r="E60">
-        <v>9435</v>
-      </c>
       <c r="F60">
-        <v>-0.031584</v>
+        <v>0.031584</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -13000,13 +13000,13 @@
         <v>2.917521415270723E-10</v>
       </c>
       <c r="D61">
+        <v>9284</v>
+      </c>
+      <c r="E61">
         <v>8458</v>
       </c>
-      <c r="E61">
-        <v>9284</v>
-      </c>
       <c r="F61">
-        <v>-0.026703</v>
+        <v>0.026703</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -13020,13 +13020,13 @@
         <v>0.008177583861848759</v>
       </c>
       <c r="D62">
+        <v>9612</v>
+      </c>
+      <c r="E62">
         <v>9281</v>
       </c>
-      <c r="E62">
-        <v>9612</v>
-      </c>
       <c r="F62">
-        <v>-0.010701</v>
+        <v>0.010701</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -13120,13 +13120,13 @@
         <v>0</v>
       </c>
       <c r="D67">
+        <v>12299</v>
+      </c>
+      <c r="E67">
         <v>0</v>
       </c>
-      <c r="E67">
-        <v>12299</v>
-      </c>
       <c r="F67">
-        <v>-0.397614</v>
+        <v>0.397614</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -13140,13 +13140,13 @@
         <v>0</v>
       </c>
       <c r="D68">
+        <v>9668</v>
+      </c>
+      <c r="E68">
         <v>0</v>
       </c>
-      <c r="E68">
-        <v>9668</v>
-      </c>
       <c r="F68">
-        <v>-0.312557</v>
+        <v>0.312557</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -13220,13 +13220,13 @@
         <v>0</v>
       </c>
       <c r="D72">
+        <v>12403</v>
+      </c>
+      <c r="E72">
         <v>0</v>
       </c>
-      <c r="E72">
-        <v>12403</v>
-      </c>
       <c r="F72">
-        <v>-0.400976</v>
+        <v>0.400976</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -13240,13 +13240,13 @@
         <v>0</v>
       </c>
       <c r="D73">
+        <v>9614</v>
+      </c>
+      <c r="E73">
         <v>0</v>
       </c>
-      <c r="E73">
-        <v>9614</v>
-      </c>
       <c r="F73">
-        <v>-0.310811</v>
+        <v>0.310811</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -13320,13 +13320,13 @@
         <v>0</v>
       </c>
       <c r="D77">
+        <v>12362</v>
+      </c>
+      <c r="E77">
         <v>0</v>
       </c>
-      <c r="E77">
-        <v>12362</v>
-      </c>
       <c r="F77">
-        <v>-0.399651</v>
+        <v>0.399651</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -13340,13 +13340,13 @@
         <v>0</v>
       </c>
       <c r="D78">
+        <v>9707</v>
+      </c>
+      <c r="E78">
         <v>0</v>
       </c>
-      <c r="E78">
-        <v>9707</v>
-      </c>
       <c r="F78">
-        <v>-0.313817</v>
+        <v>0.313817</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -13380,13 +13380,13 @@
         <v>0.004549042784768851</v>
       </c>
       <c r="D80">
+        <v>9599</v>
+      </c>
+      <c r="E80">
         <v>9240</v>
       </c>
-      <c r="E80">
-        <v>9599</v>
-      </c>
       <c r="F80">
-        <v>-0.011606</v>
+        <v>0.011606</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -13400,13 +13400,13 @@
         <v>0.003204515135249949</v>
       </c>
       <c r="D81">
+        <v>9599</v>
+      </c>
+      <c r="E81">
         <v>9224</v>
       </c>
-      <c r="E81">
-        <v>9599</v>
-      </c>
       <c r="F81">
-        <v>-0.012123</v>
+        <v>0.012123</v>
       </c>
     </row>
   </sheetData>
@@ -13947,13 +13947,13 @@
         <v>0.0006451748573323288</v>
       </c>
       <c r="D58">
+        <v>3395</v>
+      </c>
+      <c r="E58">
         <v>3134</v>
       </c>
-      <c r="E58">
-        <v>3395</v>
-      </c>
       <c r="F58">
-        <v>-0.008437999999999999</v>
+        <v>0.008437999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -14007,13 +14007,13 @@
         <v>0.0002663770448962361</v>
       </c>
       <c r="D61">
+        <v>3385</v>
+      </c>
+      <c r="E61">
         <v>3105</v>
       </c>
-      <c r="E61">
-        <v>3385</v>
-      </c>
       <c r="F61">
-        <v>-0.009051999999999999</v>
+        <v>0.009051999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -14027,13 +14027,13 @@
         <v>4.453906001781987E-06</v>
       </c>
       <c r="D62">
+        <v>3466</v>
+      </c>
+      <c r="E62">
         <v>3105</v>
       </c>
-      <c r="E62">
-        <v>3466</v>
-      </c>
       <c r="F62">
-        <v>-0.01167</v>
+        <v>0.01167</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -14047,13 +14047,13 @@
         <v>3.678979619041846E-68</v>
       </c>
       <c r="D63">
+        <v>4715</v>
+      </c>
+      <c r="E63">
         <v>3173</v>
       </c>
-      <c r="E63">
-        <v>4715</v>
-      </c>
       <c r="F63">
-        <v>-0.049851</v>
+        <v>0.049851</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -14067,13 +14067,13 @@
         <v>6.619289883057722E-09</v>
       </c>
       <c r="D64">
+        <v>3643</v>
+      </c>
+      <c r="E64">
         <v>3173</v>
       </c>
-      <c r="E64">
-        <v>3643</v>
-      </c>
       <c r="F64">
-        <v>-0.015195</v>
+        <v>0.015195</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -14127,13 +14127,13 @@
         <v>4.714240032876306E-13</v>
       </c>
       <c r="D67">
+        <v>3643</v>
+      </c>
+      <c r="E67">
         <v>3058</v>
       </c>
-      <c r="E67">
-        <v>3643</v>
-      </c>
       <c r="F67">
-        <v>-0.018912</v>
+        <v>0.018912</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -14367,13 +14367,13 @@
         <v>2.155040606550678E-36</v>
       </c>
       <c r="D79">
+        <v>4846</v>
+      </c>
+      <c r="E79">
         <v>3688</v>
       </c>
-      <c r="E79">
-        <v>4846</v>
-      </c>
       <c r="F79">
-        <v>-0.037437</v>
+        <v>0.037437</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -14387,13 +14387,13 @@
         <v>1.092466932874901E-06</v>
       </c>
       <c r="D80">
+        <v>4107</v>
+      </c>
+      <c r="E80">
         <v>3688</v>
       </c>
-      <c r="E80">
-        <v>4107</v>
-      </c>
       <c r="F80">
-        <v>-0.013546</v>
+        <v>0.013546</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -14447,13 +14447,13 @@
         <v>6.735996818739974E-06</v>
       </c>
       <c r="D83">
+        <v>4107</v>
+      </c>
+      <c r="E83">
         <v>3721</v>
       </c>
-      <c r="E83">
-        <v>4107</v>
-      </c>
       <c r="F83">
-        <v>-0.012479</v>
+        <v>0.012479</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -14547,13 +14547,13 @@
         <v>3.422262667339709E-15</v>
       </c>
       <c r="D88">
+        <v>4615</v>
+      </c>
+      <c r="E88">
         <v>3896</v>
       </c>
-      <c r="E88">
-        <v>4615</v>
-      </c>
       <c r="F88">
-        <v>-0.023245</v>
+        <v>0.023245</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -14687,13 +14687,13 @@
         <v>1.083444817058223E-40</v>
       </c>
       <c r="D95">
+        <v>4844</v>
+      </c>
+      <c r="E95">
         <v>3621</v>
       </c>
-      <c r="E95">
-        <v>4844</v>
-      </c>
       <c r="F95">
-        <v>-0.039538</v>
+        <v>0.039538</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -14707,13 +14707,13 @@
         <v>4.458786674816708E-09</v>
       </c>
       <c r="D96">
+        <v>4128</v>
+      </c>
+      <c r="E96">
         <v>3621</v>
       </c>
-      <c r="E96">
-        <v>4128</v>
-      </c>
       <c r="F96">
-        <v>-0.016391</v>
+        <v>0.016391</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -14767,13 +14767,13 @@
         <v>6.612775206550341E-05</v>
       </c>
       <c r="D99">
+        <v>4128</v>
+      </c>
+      <c r="E99">
         <v>3787</v>
       </c>
-      <c r="E99">
-        <v>4128</v>
-      </c>
       <c r="F99">
-        <v>-0.011024</v>
+        <v>0.011024</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -14867,13 +14867,13 @@
         <v>4.290514052461692E-17</v>
       </c>
       <c r="D104">
+        <v>4464</v>
+      </c>
+      <c r="E104">
         <v>3711</v>
       </c>
-      <c r="E104">
-        <v>4464</v>
-      </c>
       <c r="F104">
-        <v>-0.024344</v>
+        <v>0.024344</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -14887,13 +14887,13 @@
         <v>2.219986670705667E-10</v>
       </c>
       <c r="D105">
+        <v>4269</v>
+      </c>
+      <c r="E105">
         <v>3711</v>
       </c>
-      <c r="E105">
-        <v>4269</v>
-      </c>
       <c r="F105">
-        <v>-0.01804</v>
+        <v>0.01804</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -14927,13 +14927,13 @@
         <v>2.675481482375873E-14</v>
       </c>
       <c r="D107">
+        <v>4269</v>
+      </c>
+      <c r="E107">
         <v>3601</v>
       </c>
-      <c r="E107">
-        <v>4269</v>
-      </c>
       <c r="F107">
-        <v>-0.021596</v>
+        <v>0.021596</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -14987,13 +14987,13 @@
         <v>6.08326186720503E-12</v>
       </c>
       <c r="D110">
+        <v>4414</v>
+      </c>
+      <c r="E110">
         <v>3799</v>
       </c>
-      <c r="E110">
-        <v>4414</v>
-      </c>
       <c r="F110">
-        <v>-0.019882</v>
+        <v>0.019882</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -15007,13 +15007,13 @@
         <v>8.842947540425179E-07</v>
       </c>
       <c r="D111">
+        <v>4228</v>
+      </c>
+      <c r="E111">
         <v>3799</v>
       </c>
-      <c r="E111">
-        <v>4228</v>
-      </c>
       <c r="F111">
-        <v>-0.013869</v>
+        <v>0.013869</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -15047,13 +15047,13 @@
         <v>9.908449659016389E-07</v>
       </c>
       <c r="D113">
+        <v>4228</v>
+      </c>
+      <c r="E113">
         <v>3801</v>
       </c>
-      <c r="E113">
-        <v>4228</v>
-      </c>
       <c r="F113">
-        <v>-0.013804</v>
+        <v>0.013804</v>
       </c>
     </row>
     <row r="114" spans="1:6">
